--- a/Trunk_tools/Table/role.xlsx
+++ b/Trunk_tools/Table/role.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19410BD-BDB1-403D-9646-145D78159C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91FFCB-ABF8-4FCE-97C4-D893AAA025B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="5535" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="4650" windowWidth="26040" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,30 @@
   </si>
   <si>
     <t>Lime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPS_Solider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll_Dragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,6 +620,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trunk_tools/Table/role.xlsx
+++ b/Trunk_tools/Table/role.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91FFCB-ABF8-4FCE-97C4-D893AAA025B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE518037-BCAA-45D8-8B8D-741B6C67B3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="4650" windowWidth="26040" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30090" yWindow="-7575" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C_2001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,11 +146,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPS_Solider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Roll_Dragon</t>
+    <t>莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚球龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPS士兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +493,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,7 +614,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -622,13 +622,13 @@
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -636,13 +636,13 @@
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>2</v>

--- a/Trunk_tools/Table/role.xlsx
+++ b/Trunk_tools/Table/role.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE518037-BCAA-45D8-8B8D-741B6C67B3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083DF2A-B348-4AAD-97A6-3BB71366D8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30090" yWindow="-7575" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14355" yWindow="3075" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,34 @@
   </si>
   <si>
     <t>IPS士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EliteTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英类型的头衔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得力的同行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英中的精英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒废之土的王者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE:00-原初之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,14 +531,15 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -526,8 +555,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -543,8 +575,11 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -560,8 +595,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -577,8 +615,11 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -591,8 +632,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -605,8 +649,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -619,8 +666,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -633,8 +683,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -646,6 +699,9 @@
       </c>
       <c r="E10">
         <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Trunk_tools/Table/role.xlsx
+++ b/Trunk_tools/Table/role.xlsx
@@ -3,17 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083DF2A-B348-4AAD-97A6-3BB71366D8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C37886-DC1C-455F-A526-1E904BA813C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14355" yWindow="3075" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TargetBot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,11 +185,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CODE:00-原初之心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等等，怎么又是我挨打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧时代自动靶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +532,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -596,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -616,18 +627,18 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -638,70 +649,70 @@
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Trunk_tools/Table/role.xlsx
+++ b/Trunk_tools/Table/role.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C37886-DC1C-455F-A526-1E904BA813C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE86F6-F74E-468B-98FB-D339B887DB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="3075" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,19 +181,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等等，怎么又是我挨打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧时代自动靶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Err_NoCID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Err_NotElite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Err0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>■■■■■</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>■■■</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>荒废之土的王者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等等，怎么又是我挨打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧时代自动靶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,87 +652,121 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>37</v>
+      <c r="F12" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
